--- a/src/Data/Config.xlsx
+++ b/src/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nicoerlichman\Documents\2-Code_Repos\UiPath\Custom-REFramework\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573F3724-143B-4C32-BADF-3A9C93DCFF56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C7CBC-A70C-4302-87DE-16F754E93466}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>MaxRetryNumber</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Timeout short value in milliseconds, for slow apps. Must be integer</t>
   </si>
   <si>
-    <t>ExScreenshotsFolderPath</t>
-  </si>
-  <si>
     <t>Exceptions_Screenshots</t>
   </si>
   <si>
-    <t>Where to save exceptions screenshots - can be a full or a relative path.</t>
-  </si>
-  <si>
     <t>DelayShort</t>
   </si>
   <si>
@@ -113,6 +107,9 @@
     <t>Name of the column that is going to store the status of the transaction in the report</t>
   </si>
   <si>
+    <t>Name of the column that is going to store the message of the transaction in the report</t>
+  </si>
+  <si>
     <t>It indicates the email accounts (separated by semicolon) that are meant to recive the reporting email. Should be left empty if reporting email functionality isn't needed</t>
   </si>
   <si>
@@ -182,15 +179,9 @@
     <t>Assets</t>
   </si>
   <si>
-    <t xml:space="preserve">Typically there is not much for you to add here, although you want to check/change the settings of the Retry mechanism implemented in at the framework layer, during transaction processing, exception recovery, and continuous failiure. Also stores constants used throughout the program, like preconfiguered delays, timeouts. </t>
-  </si>
-  <si>
     <t>Constants</t>
   </si>
   <si>
-    <t>The credentials sheet is the place to store your credential names.There is also one special credential, that needs to be defined only once, and which is comprised of the URL, TenancyName and CredentialName required to authenticate to the Orchestrator server using REST API. This is only used when working with QueueItems.</t>
-  </si>
-  <si>
     <t>Credentials</t>
   </si>
   <si>
@@ -215,17 +206,121 @@
     <t>If &gt; 0 will keep a record of consecutive failed exceptions of the Process state. When this number is reached, the application will fail. Must be an integer.</t>
   </si>
   <si>
+    <t>InputFolder</t>
+  </si>
+  <si>
+    <t>OutputFolder</t>
+  </si>
+  <si>
+    <t>TempFolder</t>
+  </si>
+  <si>
+    <t>ReportsFolder</t>
+  </si>
+  <si>
+    <t>Data\Reports</t>
+  </si>
+  <si>
+    <t>ExScreenshotsFolder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where to store the reports, if enabled - can be a full or a relative path. Overrides property </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SystemReserved.Folders.ReportsFolder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where to save temporal files. Careful, this folder is wiped clean at init  and end - can be a full or a relative path. Overrides property </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SystemReserved.Folders.TempFolder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where to save exceptions screenshots - can be a full or a relative path. Overrides property </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SystemReserved.Folders.ExScreenshotsFolder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where to save the process results files, if there are any - can be a full or a relative path. Overrides property </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SystemReserved.Folders.OutputFolder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where the input files of the process are stored, if there are any - can be a full or a relative path. Overrides property </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SystemReserved.Folders.InputFolder</t>
+    </r>
+  </si>
+  <si>
+    <t>The credentials sheet is the place to store your credential names. There is also one special credential, that needs to be defined only once, and which is comprised of the URL, TenancyName and CredentialName required to authenticate to the Orchestrator server using REST API. This is only used when working with QueueItems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typically there is not much for you to add here, although you want to check/change the settings of the Retry mechanism implemented in at the framework layer, during transaction processing, exception recovery, and continuous failiure. Also stores constants used throughout the program, like preconfiguered delays, timeouts, folders. </t>
+  </si>
+  <si>
+    <t>Data\Temp</t>
+  </si>
+  <si>
     <t>Report_DescriptionColumnName</t>
-  </si>
-  <si>
-    <t>Name of the column that is going to store the description of the transaction error in the report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -296,6 +391,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -372,7 +483,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,7 +493,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -417,6 +527,8 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -741,101 +853,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B9EE4A-A787-482A-9A13-E1DF8641FC90}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118" customWidth="1"/>
+    <col min="1" max="1" width="181.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>59</v>
+      <c r="A1" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+    </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -850,26 +972,26 @@
   <dimension ref="A1:Z974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="84.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="141.85546875" style="3" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -896,10 +1018,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
+      <c r="A3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="18" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1895,13 +2029,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2922,13 +3056,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2939,29 +3073,29 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="154.7109375" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2989,236 +3123,256 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="17">
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="B7" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>120000</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>15000</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <v>60000</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9">
-        <v>5000</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9">
-        <v>30000</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9">
-        <v>120000</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9">
-        <v>15000</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>60000</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C31" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4183,7 +4337,6 @@
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/Data/Config.xlsx
+++ b/src/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nicoerlichman\Documents\2-Code_Repos\UiPath\Custom-REFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nicoerlichman\Documents\2-Code_Repos\UiPath\Custom-REFramework\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E808A2-F660-4560-A64F-8A1902ADD4C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573F3724-143B-4C32-BADF-3A9C93DCFF56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>MaxRetryNumber</t>
   </si>
@@ -110,18 +110,9 @@
     <t>Report_StatusColumnName</t>
   </si>
   <si>
-    <t>Report_MessageColumnName</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t>Name of the column that is going to store the status of the transaction in the report</t>
   </si>
   <si>
-    <t>Name of the column that is going to store the message of the transaction in the report</t>
-  </si>
-  <si>
     <t>It indicates the email accounts (separated by semicolon) that are meant to recive the reporting email. Should be left empty if reporting email functionality isn't needed</t>
   </si>
   <si>
@@ -222,6 +213,12 @@
   </si>
   <si>
     <t>If &gt; 0 will keep a record of consecutive failed exceptions of the Process state. When this number is reached, the application will fail. Must be an integer.</t>
+  </si>
+  <si>
+    <t>Report_DescriptionColumnName</t>
+  </si>
+  <si>
+    <t>Name of the column that is going to store the description of the transaction error in the report</t>
   </si>
 </sst>
 </file>
@@ -746,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B9EE4A-A787-482A-9A13-E1DF8641FC90}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +754,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
@@ -765,47 +762,47 @@
     </row>
     <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -813,32 +810,32 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -866,13 +863,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1898,13 +1895,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2925,13 +2922,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2944,8 +2941,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2958,13 +2955,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3004,24 +3001,24 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="17">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3151,13 +3148,13 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3168,29 +3165,29 @@
         <v>24</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3200,22 +3197,22 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/Data/Config.xlsx
+++ b/src/Data/Config.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nicoerlichman\Documents\2-Code_Repos\UiPath\Custom-REFramework\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C7CBC-A70C-4302-87DE-16F754E93466}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8124F88-01ED-4372-9C51-09B548FB8EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21435" windowHeight="11340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="5" r:id="rId1"/>
     <sheet name="Settings" sheetId="1" r:id="rId2"/>
     <sheet name="Credentials" sheetId="6" r:id="rId3"/>
-    <sheet name="Assets" sheetId="4" r:id="rId4"/>
-    <sheet name="Constants" sheetId="2" r:id="rId5"/>
+    <sheet name="Constants" sheetId="2" r:id="rId4"/>
+    <sheet name="Assets" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>MaxRetryNumber</t>
   </si>
@@ -314,6 +314,21 @@
   </si>
   <si>
     <t>Report_DescriptionColumnName</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ProcessABCQueue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Description (Assets will always overwrite other config)</t>
   </si>
 </sst>
 </file>
@@ -527,8 +542,8 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -551,9 +566,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Nicolas Erlichman" id="{C9125C45-73CB-4C5F-A17E-BFB4B4F53EE3}" userId="Nicolas Erlichman" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,7 +868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B9EE4A-A787-482A-9A13-E1DF8641FC90}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -972,7 +987,7 @@
   <dimension ref="A1:Z974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1017,25 +1032,40 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="18" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="18" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3040,43 +3070,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3341,13 +3340,13 @@
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3363,13 +3362,13 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4341,4 +4340,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>